--- a/company/uber/uber-freq.xlsx
+++ b/company/uber/uber-freq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/uber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02FC2F12-8B1F-044A-93E5-7A564D82D860}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BB6921-0026-DE4F-885D-F0FFF1E216CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42140" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{ADD3C392-8457-794C-A0B2-2CFEBDE1BC50}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Number</t>
   </si>
@@ -246,7 +246,68 @@
     <t>Task Scheduler</t>
   </si>
   <si>
-    <t>PAGE20 Continue</t>
+    <t>Find K Pairs with Smallest Sums</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Calendar printing</t>
+  </si>
+  <si>
+    <t>https://introcs.cs.princeton.edu/java/21function/Calendar.java.html</t>
+  </si>
+  <si>
+    <t>2D array, black and white blocks. Only white blocks 可以走。
+给两个点，求从一个点到另一个点的path。followup：求最短的那条path</t>
+  </si>
+  <si>
+    <t>给一个int数组，判断数组能否拆成两个数组，并且这两个数组的average一样</t>
+  </si>
+  <si>
+    <t>Range Minimum Query</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/segment-tree-set-1-range-minimum-query/</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>收尾相接的排好序的循环单链表，实现两个方法，1. findNode(int val，Node startNode)   2. insertNode(int val, Node startNode) 要保持排好序， 因为首尾相接，startNode可以是任意其中的Node。</t>
+  </si>
+  <si>
+    <t>Optimal Account Balancing</t>
+  </si>
+  <si>
+    <t>Tag Validator</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Cherry Pickup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frog Jump </t>
+  </si>
+  <si>
+    <t>given tasks with priorities and dependencies, how to figure out the right order. Follow up: what if input is a stream
+Should use queue, monitor, wait, notify</t>
+  </si>
+  <si>
+    <t>给两个排好序的区间序列，每个序列内部是分开的，没有交叠
+1. 找出两个序列的union
+2. 找出两个序列的intersection</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
   </si>
 </sst>
 </file>
@@ -612,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1965BF-E87F-0D49-B15D-632B86B22A6E}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,299 +699,299 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>46</v>
+        <v>560</v>
       </c>
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>427</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>4</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>780</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>359</v>
+      <c r="A8" t="s">
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>295</v>
+        <v>780</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>986</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>127</v>
+        <v>986</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>340</v>
-      </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>18</v>
+      <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>340</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
+      <c r="C21">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>138</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>269</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>722</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>68</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>722</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>437</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>33</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -938,21 +999,21 @@
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>529</v>
+        <v>437</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>640</v>
+        <v>173</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -960,10 +1021,10 @@
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>310</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -971,21 +1032,21 @@
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>773</v>
+        <v>529</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>286</v>
+        <v>640</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -993,10 +1054,10 @@
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1004,10 +1065,10 @@
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>79</v>
+        <v>773</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1015,10 +1076,10 @@
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1026,10 +1087,10 @@
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>49</v>
+        <v>255</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1037,32 +1098,32 @@
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>242</v>
+      </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1070,32 +1131,32 @@
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>546</v>
+        <v>428</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>471</v>
-      </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>52</v>
+      <c r="A43">
+        <v>239</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1103,10 +1164,10 @@
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>76</v>
+        <v>546</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1114,32 +1175,32 @@
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>815</v>
+        <v>471</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>146</v>
+      <c r="A46" t="s">
+        <v>52</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>460</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1147,136 +1208,313 @@
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>815</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>146</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>460</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>341</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C49">
+      <c r="C52">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>221</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>78</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>706</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>37</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>32</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>332</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>621</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>71</v>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>75</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>465</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>591</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>230</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>741</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>403</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>20</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>15</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>31</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{1C557525-9F2E-1C48-8A53-A47858813CB2}"/>
-    <hyperlink ref="D12" r:id="rId2" xr:uid="{BC001CCF-16FD-0849-8A64-A48F96FDA72F}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{4F42A3B7-B4AA-B149-B91B-0F49B707E6F2}"/>
-    <hyperlink ref="D16" r:id="rId4" xr:uid="{0235616C-765A-2B4D-ADCF-843F11E19242}"/>
-    <hyperlink ref="D19" r:id="rId5" xr:uid="{98B37B1B-45E5-5643-A23E-98CA10B85CB0}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{3CBFAC72-3178-E246-A262-FD2CCEFF7215}"/>
-    <hyperlink ref="D39" r:id="rId7" xr:uid="{E88579DC-2308-5842-A54F-A1F8C124212C}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{1C557525-9F2E-1C48-8A53-A47858813CB2}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{BC001CCF-16FD-0849-8A64-A48F96FDA72F}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{4F42A3B7-B4AA-B149-B91B-0F49B707E6F2}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{0235616C-765A-2B4D-ADCF-843F11E19242}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{98B37B1B-45E5-5643-A23E-98CA10B85CB0}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{3CBFAC72-3178-E246-A262-FD2CCEFF7215}"/>
+    <hyperlink ref="D42" r:id="rId7" xr:uid="{E88579DC-2308-5842-A54F-A1F8C124212C}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{4BC5CCD6-6D49-2544-B80B-277EDCE2B41A}"/>
+    <hyperlink ref="D64" r:id="rId9" xr:uid="{26E68482-CA70-ED43-B90B-AA4E74C0EBC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/uber/uber-freq.xlsx
+++ b/company/uber/uber-freq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/uber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BB6921-0026-DE4F-885D-F0FFF1E216CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C70B1EF-6814-7B40-992B-3AC0D9250D8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42140" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{ADD3C392-8457-794C-A0B2-2CFEBDE1BC50}"/>
+    <workbookView xWindow="72700" yWindow="3660" windowWidth="16300" windowHeight="17940" xr2:uid="{ADD3C392-8457-794C-A0B2-2CFEBDE1BC50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Number</t>
   </si>
@@ -308,6 +308,76 @@
   </si>
   <si>
     <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Carpool combinations: given N users, each person has a (pick up time,  drop off time), print all combinations of pickups and dropoffs schedule. E.g, (p1, d1), (p2, d2) for 2 persons, then you need to print 
+[[p1, d1, p2, d2], [p1, p2, d1, d2], [p1, p2, d2, d1], [p2, p1, d1, d2], [p2, p1, d2, d1]]</t>
+  </si>
+  <si>
+    <t>similar to leetcode 22?</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>Connecting Cities With Minimum Cost</t>
+  </si>
+  <si>
+    <t>Path Sum II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text Justification </t>
+  </si>
+  <si>
+    <t>outputs all possibilities to put + or - or nothing between the numbers 1, 2, ..., 9</t>
+  </si>
+  <si>
+    <t>https://rosettacode.org/wiki/Sum_to_100#Java</t>
+  </si>
+  <si>
+    <t>139, 140</t>
+  </si>
+  <si>
+    <t>Word Break I + II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Distinct Islands </t>
+  </si>
+  <si>
+    <t>Flip array produce max continuous 1</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-zeroes-to-be-flipped-so-that-number-of-consecutive-1s-is-maximized/</t>
+  </si>
+  <si>
+    <t>Moving Average from Data Stream</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement strStr() </t>
+  </si>
+  <si>
+    <t>needle can be permutation</t>
+  </si>
+  <si>
+    <t>Print in Order</t>
+  </si>
+  <si>
+    <t>follow up 一些多线程的问题，然后改成k streams</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>给一个二维矩阵image grid 每个单元里的值为颜色代码，给一个起始点和目标颜色，任务是将起始点所在的区域（相同颜色）改为目标颜色。(Flood Fill?)</t>
   </si>
 </sst>
 </file>
@@ -673,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1965BF-E87F-0D49-B15D-632B86B22A6E}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,257 +767,266 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>373</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
+        <v>332</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>560</v>
-      </c>
-      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>72</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>427</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
+        <v>416</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>591</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+        <v>347</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1135</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>529</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>780</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>359</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>295</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>986</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
+        <v>282</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>127</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
+        <v>694</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>340</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>18</v>
+      <c r="D18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>346</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>126</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
+        <v>206</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1114</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>269</v>
+        <v>733</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -955,318 +1034,321 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>722</v>
+        <v>373</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>28</v>
+      <c r="A26">
+        <v>560</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>427</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>161</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>780</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>68</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>437</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>173</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>36</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>529</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>359</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>295</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>986</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>340</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>640</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>310</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>773</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>286</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>255</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>79</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>242</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>49</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>428</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
         <v>2</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>239</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>546</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>471</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>52</v>
+      <c r="A46">
+        <v>138</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>815</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>722</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
       </c>
       <c r="C48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>146</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>460</v>
+        <v>161</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>341</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>59</v>
+      <c r="A52">
+        <v>437</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1274,10 +1356,10 @@
     </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1285,18 +1367,21 @@
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>706</v>
+        <v>640</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>310</v>
+      </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1304,10 +1389,10 @@
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>37</v>
+        <v>773</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -1315,10 +1400,10 @@
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1326,97 +1411,109 @@
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>332</v>
+        <v>255</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>68</v>
+      <c r="A60">
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>621</v>
+        <v>242</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>49</v>
+      </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>428</v>
+      </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>546</v>
+      </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>591</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1424,21 +1521,21 @@
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>230</v>
+        <v>815</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>741</v>
+        <v>146</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1446,75 +1543,249 @@
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>341</v>
+      </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75">
+        <v>706</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>37</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>32</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>621</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>75</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>465</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>230</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>741</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>403</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>15</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>31</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C76">
+      <c r="C93">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{1C557525-9F2E-1C48-8A53-A47858813CB2}"/>
-    <hyperlink ref="D15" r:id="rId2" xr:uid="{BC001CCF-16FD-0849-8A64-A48F96FDA72F}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{4F42A3B7-B4AA-B149-B91B-0F49B707E6F2}"/>
-    <hyperlink ref="D19" r:id="rId4" xr:uid="{0235616C-765A-2B4D-ADCF-843F11E19242}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{98B37B1B-45E5-5643-A23E-98CA10B85CB0}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{3CBFAC72-3178-E246-A262-FD2CCEFF7215}"/>
-    <hyperlink ref="D42" r:id="rId7" xr:uid="{E88579DC-2308-5842-A54F-A1F8C124212C}"/>
-    <hyperlink ref="D4" r:id="rId8" xr:uid="{4BC5CCD6-6D49-2544-B80B-277EDCE2B41A}"/>
-    <hyperlink ref="D64" r:id="rId9" xr:uid="{26E68482-CA70-ED43-B90B-AA4E74C0EBC3}"/>
+    <hyperlink ref="D35" r:id="rId1" xr:uid="{1C557525-9F2E-1C48-8A53-A47858813CB2}"/>
+    <hyperlink ref="D38" r:id="rId2" xr:uid="{BC001CCF-16FD-0849-8A64-A48F96FDA72F}"/>
+    <hyperlink ref="B42" r:id="rId3" xr:uid="{4F42A3B7-B4AA-B149-B91B-0F49B707E6F2}"/>
+    <hyperlink ref="D42" r:id="rId4" xr:uid="{0235616C-765A-2B4D-ADCF-843F11E19242}"/>
+    <hyperlink ref="D45" r:id="rId5" xr:uid="{98B37B1B-45E5-5643-A23E-98CA10B85CB0}"/>
+    <hyperlink ref="D29" r:id="rId6" xr:uid="{3CBFAC72-3178-E246-A262-FD2CCEFF7215}"/>
+    <hyperlink ref="D64" r:id="rId7" xr:uid="{E88579DC-2308-5842-A54F-A1F8C124212C}"/>
+    <hyperlink ref="D27" r:id="rId8" xr:uid="{4BC5CCD6-6D49-2544-B80B-277EDCE2B41A}"/>
+    <hyperlink ref="D83" r:id="rId9" xr:uid="{26E68482-CA70-ED43-B90B-AA4E74C0EBC3}"/>
+    <hyperlink ref="D14" r:id="rId10" location="Java" xr:uid="{62C38D5D-A40A-F04F-87B3-F7A576920A39}"/>
+    <hyperlink ref="D18" r:id="rId11" xr:uid="{CF0B593C-240D-A54F-BFA5-34661644EBC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/company/uber/uber-freq.xlsx
+++ b/company/uber/uber-freq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bozhou/Dropbox/interview/company/uber/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C70B1EF-6814-7B40-992B-3AC0D9250D8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FD25E4-C413-9D43-A289-B23010DF9488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72700" yWindow="3660" windowWidth="16300" windowHeight="17940" xr2:uid="{ADD3C392-8457-794C-A0B2-2CFEBDE1BC50}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16100" windowHeight="14160" xr2:uid="{ADD3C392-8457-794C-A0B2-2CFEBDE1BC50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
